--- a/FinalProjectML/dataset/data-label.xlsx
+++ b/FinalProjectML/dataset/data-label.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\git\CS114.K21.KHTN\FinalProjectML\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\git\CS114.K21.KHTN\FinalProjectML\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364DB7E9-52AA-48AD-8077-0BD2B1D0DF99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACB0EDE-5BD8-4D9F-AB3D-51D39047AF83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11362,7 +11362,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
@@ -11749,7 +11749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>141</v>
       </c>
@@ -12096,7 +12096,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" ht="42" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>199</v>
       </c>
@@ -12490,7 +12490,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>270</v>
       </c>
@@ -12629,7 +12629,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" ht="56" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>296</v>
       </c>
@@ -12955,7 +12955,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
         <v>348</v>
       </c>
@@ -13013,7 +13013,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:2" ht="56" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
         <v>359</v>
       </c>
@@ -13767,7 +13767,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A505" s="1" t="s">
         <v>492</v>
       </c>
@@ -13787,7 +13787,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A510" s="1" t="s">
         <v>496</v>
       </c>
@@ -13936,7 +13936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:2" ht="42" x14ac:dyDescent="0.3">
       <c r="A537" s="1" t="s">
         <v>521</v>
       </c>
@@ -14748,7 +14748,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A680" s="1" t="s">
         <v>659</v>
       </c>
@@ -14766,7 +14766,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A683" s="1" t="s">
         <v>662</v>
       </c>
@@ -15065,7 +15065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A739" s="1" t="s">
         <v>714</v>
       </c>
@@ -15095,7 +15095,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A745" s="1" t="s">
         <v>719</v>
       </c>
@@ -15302,7 +15302,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="783" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A783" s="1" t="s">
         <v>754</v>
       </c>
@@ -15315,7 +15315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="785" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A785" s="1" t="s">
         <v>756</v>
       </c>
@@ -15452,7 +15452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="811" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A811" s="1" t="s">
         <v>781</v>
       </c>
@@ -15616,7 +15616,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="843" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A843" s="1" t="s">
         <v>807</v>
       </c>
@@ -15636,7 +15636,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="847" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A847" s="1" t="s">
         <v>811</v>
       </c>
@@ -15760,7 +15760,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="869" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:2" ht="70" x14ac:dyDescent="0.3">
       <c r="A869" s="1" t="s">
         <v>831</v>
       </c>
@@ -15912,12 +15912,12 @@
         <v>855</v>
       </c>
     </row>
-    <row r="894" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A894" s="1" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="895" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:2" ht="56" x14ac:dyDescent="0.3">
       <c r="A895" s="1" t="s">
         <v>857</v>
       </c>
@@ -15994,12 +15994,12 @@
         <v>868</v>
       </c>
     </row>
-    <row r="909" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:2" ht="42" x14ac:dyDescent="0.3">
       <c r="A909" s="1" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="910" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:2" ht="84" x14ac:dyDescent="0.3">
       <c r="A910" s="1" t="s">
         <v>870</v>
       </c>
@@ -16121,7 +16121,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="932" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A932" s="1" t="s">
         <v>892</v>
       </c>
@@ -16170,7 +16170,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="940" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A940" s="1" t="s">
         <v>900</v>
       </c>
@@ -16354,7 +16354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="972" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A972" s="1" t="s">
         <v>932</v>
       </c>
@@ -16806,7 +16806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1052" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1052" spans="1:2" ht="42" x14ac:dyDescent="0.3">
       <c r="A1052" s="1" t="s">
         <v>1003</v>
       </c>
@@ -16855,7 +16855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1060" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1060" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A1060" s="1" t="s">
         <v>1010</v>
       </c>
@@ -17495,7 +17495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="1188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1188" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A1188" s="1" t="s">
         <v>1104</v>
       </c>
@@ -17900,7 +17900,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="1266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1266" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A1266" s="1" t="s">
         <v>1162</v>
       </c>
@@ -18071,7 +18071,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="1299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1299" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A1299" s="1" t="s">
         <v>1184</v>
       </c>
@@ -21020,7 +21020,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="1838" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1838" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A1838" s="1" t="s">
         <v>1677</v>
       </c>
@@ -24072,7 +24072,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="2410" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2410" spans="1:2" ht="42" x14ac:dyDescent="0.3">
       <c r="A2410" s="1" t="s">
         <v>2141</v>
       </c>
@@ -25044,7 +25044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2591" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2591" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A2591" s="1" t="s">
         <v>2308</v>
       </c>
@@ -25748,7 +25748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2721" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2721" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A2721" s="1" t="s">
         <v>2427</v>
       </c>
@@ -29807,7 +29807,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="3479" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3479" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A3479" s="1" t="s">
         <v>3071</v>
       </c>
@@ -30510,7 +30510,7 @@
         <v>3177</v>
       </c>
     </row>
-    <row r="3604" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3604" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A3604" s="1" t="s">
         <v>3178</v>
       </c>
@@ -31749,7 +31749,7 @@
         <v>3363</v>
       </c>
     </row>
-    <row r="3820" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3820" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A3820" s="1" t="s">
         <v>3364</v>
       </c>
@@ -32559,7 +32559,7 @@
         <v>3482</v>
       </c>
     </row>
-    <row r="3957" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3957" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A3957" s="1" t="s">
         <v>3483</v>
       </c>
